--- a/combinatorial/testcase/combinatorial 테스트케이스 B3.xlsx
+++ b/combinatorial/testcase/combinatorial 테스트케이스 B3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGGit\vnv-team-3\combinatorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435ECB01-C5C8-40B4-A189-E273C3FFA653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F2F9B-8059-42D4-8396-199AC138C581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,324 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="102">
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Vaild Output</t>
+  </si>
+  <si>
+    <t>errlist</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>P/F</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>selected mode number &gt;= 5</t>
+  </si>
+  <si>
+    <t>&lt;err&gt;</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>number unchanged</t>
+  </si>
+  <si>
+    <t>timekeeping</t>
+  </si>
+  <si>
+    <t>in mode</t>
+  </si>
+  <si>
+    <t>year display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.1.0&gt;</t>
+  </si>
+  <si>
+    <t>month display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.2.0&gt;</t>
+  </si>
+  <si>
+    <t>day display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.3.0&gt;</t>
+  </si>
+  <si>
+    <t>hour display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.4.0&gt;</t>
+  </si>
+  <si>
+    <t>minute display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.5.0&gt;</t>
+  </si>
+  <si>
+    <t>second display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.6.0&gt;</t>
+  </si>
+  <si>
+    <t>world display</t>
+  </si>
+  <si>
+    <t>&lt;1.1.7.0&gt;</t>
+  </si>
+  <si>
+    <t>switch area</t>
+  </si>
+  <si>
+    <t>switched</t>
+  </si>
+  <si>
+    <t>&lt;1.2.8.0&gt;</t>
+  </si>
+  <si>
+    <t>change num</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>&lt;1.3.9.0&gt;</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>&lt;2.1.1.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.1.2.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.1.3.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.1.4.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.1.5.0.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.1.6.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.1.7.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.2.8.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;2.3.9.0&gt;</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>AABAABBDAABAAB</t>
+  </si>
+  <si>
+    <t>-&gt; 2초씩 감소</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>&lt;2.4.10.0.&gt;</t>
+  </si>
+  <si>
+    <t>start timer</t>
+  </si>
+  <si>
+    <t>timer working</t>
+  </si>
+  <si>
+    <t>&lt;2.7.11.0&gt;</t>
+  </si>
+  <si>
+    <t>AABAABBDAABAABBDAABAAB</t>
+  </si>
+  <si>
+    <t>-&gt; reset횟수를 늘릴수록 한번에 많은 값이 감소</t>
+  </si>
+  <si>
+    <t>lap timer</t>
+  </si>
+  <si>
+    <t>timer lapping</t>
+  </si>
+  <si>
+    <t>&lt;2.8.12.0&gt;</t>
+  </si>
+  <si>
+    <t>stopwatch</t>
+  </si>
+  <si>
+    <t>&lt;3.1.1.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.1.2.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.1.3.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.1.4.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.1.5.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.1.6.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.1.7.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.2.8.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;3.4.10.0&gt;</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>&lt;4.2.8.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;4.3.9.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;4.4.10.0&gt;</t>
+  </si>
+  <si>
+    <t>change alarm index</t>
+  </si>
+  <si>
+    <t>&lt;4.10.9.0&gt;</t>
+  </si>
+  <si>
+    <t>worldtime</t>
+  </si>
+  <si>
+    <t>&lt;5.1.1.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5.1.2.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5.1.3.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5.1.4.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5.1.5.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5.1.6.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;5.1.7.0&gt;</t>
+  </si>
+  <si>
+    <t>change world</t>
+  </si>
+  <si>
+    <t>world changed</t>
+  </si>
+  <si>
+    <t>&lt;5.9.13.0&gt;</t>
+  </si>
+  <si>
+    <t>brightnesscontrol</t>
+  </si>
+  <si>
+    <t>change brightness</t>
+  </si>
+  <si>
+    <t>&lt;6.5.9.0&gt;</t>
+  </si>
+  <si>
+    <t>turn on/off brightness</t>
+  </si>
+  <si>
+    <t>&lt;6.6.9.0&gt;</t>
+  </si>
+  <si>
+    <t>swmode</t>
+  </si>
+  <si>
+    <t>&lt;7.1.1.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.1.2.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.1.3.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.1.4.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.1.5.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.1.6.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.1.7.0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;7.2.8.0&gt;</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iter#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iter#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +357,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -51,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -59,12 +401,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -345,12 +871,1166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
+        <v>38</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>39</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51">
+        <v>42</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="26.4">
+      <c r="B54">
+        <v>45</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="26.4">
+      <c r="B55">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56">
+        <v>47</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58">
+        <v>49</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60">
+        <v>51</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61">
+        <v>52</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62">
+        <v>53</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63">
+        <v>54</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -359,13 +2039,1517 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
-  <dimension ref="A1"/>
+  <dimension ref="C5:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="3" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="7" max="7" width="22.296875" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:10" ht="18" thickBot="1"/>
+    <row r="6" spans="3:10" ht="18" thickBot="1">
+      <c r="I6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="8">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="8">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="8">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="8">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="8">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="8">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="8">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="8">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="8">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="8">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="8">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="18" thickBot="1">
+      <c r="C27" s="14">
+        <v>20</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="18" thickTop="1">
+      <c r="C28" s="8"/>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="8"/>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="8">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="18" thickBot="1">
+      <c r="C31" s="14">
+        <v>22</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="18" thickTop="1">
+      <c r="C32" s="8"/>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="8"/>
+      <c r="D33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="8">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="8">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="8">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="8">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="8">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="8">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="8">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="8">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="8">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="8">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="8">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="8">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="8">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="8">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="8">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="8">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="8">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="8">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="8">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="8">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="8">
+        <v>43</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" s="8">
+        <v>44</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="26.4">
+      <c r="C56" s="8">
+        <v>45</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" ht="26.4">
+      <c r="C57" s="8">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" s="8">
+        <v>47</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" s="8">
+        <v>48</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="8">
+        <v>49</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" s="8">
+        <v>50</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" s="8">
+        <v>51</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="8">
+        <v>52</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64" s="8">
+        <v>53</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" ht="18" thickBot="1">
+      <c r="C65" s="11">
+        <v>54</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/combinatorial/testcase/combinatorial 테스트케이스 B3.xlsx
+++ b/combinatorial/testcase/combinatorial 테스트케이스 B3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGGit\vnv-team-3\combinatorial\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309E7E9-B025-479B-B8C8-1A69DC0A5C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4596D677-C62A-4F83-9F06-87C47516347C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
-    <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration #1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration #2" sheetId="3" r:id="rId2"/>
+    <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="312">
   <si>
     <t>Mode</t>
   </si>
@@ -314,6 +315,656 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITERATION#1(ITERATION #2는 새 시트에 작성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CPT.Ring.1</t>
+  </si>
+  <si>
+    <t>Test Case 1   &lt;single&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function :  ringing</t>
+  </si>
+  <si>
+    <t>모든 상황에서 ring이 잘 울리는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.1</t>
+  </si>
+  <si>
+    <t>Test Case 2   (Key = 1.1.1.1.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  timekeeping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Status       :  in edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  country</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, country unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.2</t>
+  </si>
+  <si>
+    <t>Test Case 3   (Key = 1.1.1.2.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  year</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, year unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.3</t>
+  </si>
+  <si>
+    <t>Test Case 4   (Key = 1.1.1.3.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  month</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, month unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.4</t>
+  </si>
+  <si>
+    <t>Test Case 5   (Key = 1.1.1.4.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  day</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, day unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.5</t>
+  </si>
+  <si>
+    <t>Test Case 6   (Key = 1.1.1.5.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  hour</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, hour unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.6</t>
+  </si>
+  <si>
+    <t>Test Case 7   (Key = 1.1.1.6.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  minute</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, minute unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.7</t>
+  </si>
+  <si>
+    <t>Test Case 8   (Key = 1.1.1.7.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  second</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, second unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.8</t>
+  </si>
+  <si>
+    <t>Test Case 9   (Key = 1.1.2.1.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  decrease</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, country unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.9</t>
+  </si>
+  <si>
+    <t>Test Case 10  (Key = 1.1.2.2.)</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, year unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.10</t>
+  </si>
+  <si>
+    <t>Test Case 11  (Key = 1.1.2.3.)</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, month unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.11</t>
+  </si>
+  <si>
+    <t>Test Case 12  (Key = 1.1.2.4.)</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, day unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.12</t>
+  </si>
+  <si>
+    <t>Test Case 13  (Key = 1.1.2.5.)</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, hour unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.13</t>
+  </si>
+  <si>
+    <t>Test Case 14  (Key = 1.1.2.6.)</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, minute unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.14</t>
+  </si>
+  <si>
+    <t>Test Case 15  (Key = 1.1.2.7.)</t>
+  </si>
+  <si>
+    <t>timekeeping mode 수정 시, second unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.15</t>
+  </si>
+  <si>
+    <t>Test Case 16  (Key = 1.1.3.1.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  next unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, country의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.16</t>
+  </si>
+  <si>
+    <t>Test Case 17  (Key = 1.1.3.2.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, year의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.17</t>
+  </si>
+  <si>
+    <t>Test Case 18  (Key = 1.1.3.3.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, month의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.18</t>
+  </si>
+  <si>
+    <t>Test Case 19  (Key = 1.1.3.4.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, day의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.19</t>
+  </si>
+  <si>
+    <t>Test Case 20  (Key = 1.1.3.5.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, hour의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.20</t>
+  </si>
+  <si>
+    <t>Test Case 21  (Key = 1.1.3.6.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, minute의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.21</t>
+  </si>
+  <si>
+    <t>Test Case 22  (Key = 1.1.3.7.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timekeeping mode 수정 시, second의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timekeeping.22</t>
+  </si>
+  <si>
+    <t>Test Case 23  (Key = 1.2.4.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Status       :  in normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  next mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Current unit :  &lt;n/a&gt;</t>
+  </si>
+  <si>
+    <t>timekeeping mode에서 다음 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Stopwatch.1</t>
+  </si>
+  <si>
+    <t>Test Case 25  (Key = 2.2.4.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  stopwatch</t>
+  </si>
+  <si>
+    <t>stopwatch mode에서 다음 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Stopwatch.2</t>
+  </si>
+  <si>
+    <t>Test Case 26  (Key = 2.2.5.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  start</t>
+  </si>
+  <si>
+    <t>stopwatch mode에서 stopwatch의 start 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Stopwatch.3</t>
+  </si>
+  <si>
+    <t>Test Case 27  (Key = 2.2.6.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  stop</t>
+  </si>
+  <si>
+    <t>stopwatch mode에서 stopwatch의 stop이 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Stopwatch.4</t>
+  </si>
+  <si>
+    <t>Test Case 28  (Key = 2.2.7.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  reset</t>
+  </si>
+  <si>
+    <t>stopwatch mode에서 stopwatch의 reset이 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Stopwatch.5</t>
+  </si>
+  <si>
+    <t>Test Case 29  (Key = 2.2.8.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  laptime</t>
+  </si>
+  <si>
+    <t>stopwatch mode에서 stopwatch의 laptime이 잘 기록되는가</t>
+  </si>
+  <si>
+    <t>CPT.Worldtime.1</t>
+  </si>
+  <si>
+    <t>Test Case 31  (Key = 3.2.4.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  worldtime</t>
+  </si>
+  <si>
+    <t>worldtime mode에서 다음 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Worldtime.2</t>
+  </si>
+  <si>
+    <t>Test Case 32  (Key = 3.2.9.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  next world</t>
+  </si>
+  <si>
+    <t>worldtime mode에서 다음 country로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.1</t>
+  </si>
+  <si>
+    <t>Test Case 33  (Key = 4.1.1.5.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  timer</t>
+  </si>
+  <si>
+    <t>timer mode 수정 시, hour unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.2</t>
+  </si>
+  <si>
+    <t>Test Case 34  (Key = 4.1.1.6.)</t>
+  </si>
+  <si>
+    <t>timer mode 수정 시, minute unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.3</t>
+  </si>
+  <si>
+    <t>Test Case 35  (Key = 4.1.1.7.)</t>
+  </si>
+  <si>
+    <t>timer mode 수정 시, second unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.4</t>
+  </si>
+  <si>
+    <t>Test Case 36  (Key = 4.1.2.5.)</t>
+  </si>
+  <si>
+    <t>timermode 수정 시, hour unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.5</t>
+  </si>
+  <si>
+    <t>Test Case 37  (Key = 4.1.2.6.)</t>
+  </si>
+  <si>
+    <t>timer mode 수정 시, minute unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.6</t>
+  </si>
+  <si>
+    <t>Test Case 38  (Key = 4.1.2.7.)</t>
+  </si>
+  <si>
+    <t>timer mode 수정 시, second unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.7</t>
+  </si>
+  <si>
+    <t>Test Case 39  (Key = 4.1.3.5.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer mode 수정 시, hour의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timer.8</t>
+  </si>
+  <si>
+    <t>Test Case 40  (Key = 4.1.3.6.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer mode 수정 시, minute의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timer.9</t>
+  </si>
+  <si>
+    <t>Test Case 41  (Key = 4.1.3.7.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer mode 수정 시, second의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Timer.10</t>
+  </si>
+  <si>
+    <t>Test Case 42  (Key = 4.2.4.0.)</t>
+  </si>
+  <si>
+    <t>timer mode에서 다음 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.11</t>
+  </si>
+  <si>
+    <t>Test Case 43  (Key = 4.2.5.0.)</t>
+  </si>
+  <si>
+    <t>timer mode에서 timer의 start 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.12</t>
+  </si>
+  <si>
+    <t>Test Case 44  (Key = 4.2.6.0.)</t>
+  </si>
+  <si>
+    <t>timer mode에서 timer의 stop이 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Timer.13</t>
+  </si>
+  <si>
+    <t>Test Case 45  (Key = 4.2.7.0.)</t>
+  </si>
+  <si>
+    <t>timer mode에서 timer의 reset이 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Swmode.1</t>
+  </si>
+  <si>
+    <t>Test Case 47  (Key = 5.2.4.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  swmode</t>
+  </si>
+  <si>
+    <t>sw mode에서 원래 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>Test Case 48  (Key = 5.2.10.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  mode check</t>
+  </si>
+  <si>
+    <t>sw mode에서 다음 mode 를 선택할 수 있게 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>Test Case 49  (Key = 5.2.11.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  select</t>
+  </si>
+  <si>
+    <t>sw mode에서 해당 mode 활성화가 잘 이루어지는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.1</t>
+  </si>
+  <si>
+    <t>Test Case 50  (Key = 6.1.1.5.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  alarm</t>
+  </si>
+  <si>
+    <t>alarm mode 수정 시, hour unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.2</t>
+  </si>
+  <si>
+    <t>Test Case 51  (Key = 6.1.1.6.)</t>
+  </si>
+  <si>
+    <t>alarm mode 수정 시, minute unit이 제대로 증가하는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.3</t>
+  </si>
+  <si>
+    <t>Test Case 52  (Key = 6.1.2.5.)</t>
+  </si>
+  <si>
+    <t>alarm mode 수정 시, hour unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.4</t>
+  </si>
+  <si>
+    <t>Test Case 53  (Key = 6.1.2.6.)</t>
+  </si>
+  <si>
+    <t>alarm mode 수정 시, minute unit이 제대로 감소하는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.5</t>
+  </si>
+  <si>
+    <t>Test Case 54  (Key = 6.1.3.5.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm mode 수정 시, hour의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Alarm.6</t>
+  </si>
+  <si>
+    <t>Test Case 55  (Key = 6.1.3.6.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm mode 수정 시, minute의 다음 unit으로 잘 넘어가는가 </t>
+  </si>
+  <si>
+    <t>CPT.Alarm.7</t>
+  </si>
+  <si>
+    <t>Test Case 56  (Key = 6.2.4.0.)</t>
+  </si>
+  <si>
+    <t>alarm mode에서 다음 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.8</t>
+  </si>
+  <si>
+    <t>Test Case 57  (Key = 6.2.7.0.)</t>
+  </si>
+  <si>
+    <t>alarm mode에서 reset이 잘 작동하는가</t>
+  </si>
+  <si>
+    <t>CPT.Alarm.9</t>
+  </si>
+  <si>
+    <t>Test Case 58  (Key = 6.2.12.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  next alarm</t>
+  </si>
+  <si>
+    <t>alarm mode에서 다음 alarm을 잘 보여주는가</t>
+  </si>
+  <si>
+    <t>CPT.Brightnesscontrol.1</t>
+  </si>
+  <si>
+    <t>Test Case 60  (Key = 7.2.4.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mode         :  brightness control</t>
+  </si>
+  <si>
+    <t>brightness control mode에서 다음 mode로 잘 넘어가는가</t>
+  </si>
+  <si>
+    <t>CPT.Brightnesscontrol.2</t>
+  </si>
+  <si>
+    <t>Test Case 61  (Key = 7.2.13.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  on</t>
+  </si>
+  <si>
+    <t>brightness control mode에서 기능이 제대로 켜지는가</t>
+  </si>
+  <si>
+    <t>CPT.Brightnesscontrol.3</t>
+  </si>
+  <si>
+    <t>Test Case 62  (Key = 7.2.14.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  off</t>
+  </si>
+  <si>
+    <t>brightness control mode에서 기능이 제대로 꺼지는가</t>
+  </si>
+  <si>
+    <t>CPT.Brightnesscontrol.4</t>
+  </si>
+  <si>
+    <t>Test Case 63  (Key = 7.2.15.0.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Function     :  next level</t>
+  </si>
+  <si>
+    <t>brightness control mode에서 밝기 조정이 제대로 이루어지는가</t>
+  </si>
+  <si>
+    <t>P/F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +1007,26 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +1036,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -373,11 +1044,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -386,6 +1129,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:G63"/>
+  <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -685,6 +1473,11 @@
     <col min="7" max="7" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:7">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>95</v>
@@ -1835,6 +2628,3384 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C27C93-64D4-41A2-A8EC-039C22316C09}">
+  <dimension ref="C5:G298"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="3" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" ht="18" thickBot="1"/>
+    <row r="6" spans="3:7" ht="18.600000000000001" thickTop="1" thickBot="1">
+      <c r="C6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="15" customHeight="1" thickTop="1">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="3:7" ht="15" customHeight="1">
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="15" customHeight="1">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="3:7" ht="15" customHeight="1">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="3:7" ht="15" customHeight="1">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="3:7" ht="15" customHeight="1">
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="15" customHeight="1">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="3:7" ht="15" customHeight="1">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="3:7" ht="15" customHeight="1">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" customHeight="1">
+      <c r="C19" s="12">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="3:7" ht="15" customHeight="1">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="3:7" ht="15" customHeight="1">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="3:7" ht="15" customHeight="1">
+      <c r="C24" s="12">
+        <v>5</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15" customHeight="1">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="3:7" ht="15" customHeight="1">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="3:7" ht="15" customHeight="1">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="3:7" ht="15" customHeight="1">
+      <c r="C29" s="12">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="15" customHeight="1">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="3:7" ht="15" customHeight="1">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="3:7" ht="15" customHeight="1">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="3:7" ht="15" customHeight="1">
+      <c r="C34" s="12">
+        <v>7</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15" customHeight="1">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="3:7" ht="15" customHeight="1">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:7" ht="15" customHeight="1">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="3:7" ht="15" customHeight="1">
+      <c r="C39" s="12">
+        <v>8</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="15" customHeight="1">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="3:7" ht="15" customHeight="1">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="3:7" ht="15" customHeight="1">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="3:7" ht="15" customHeight="1">
+      <c r="C44" s="12">
+        <v>9</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="15" customHeight="1">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="3:7" ht="15" customHeight="1">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="3:7" ht="15" customHeight="1">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="3:7" ht="15" customHeight="1">
+      <c r="C49" s="12">
+        <v>10</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="15" customHeight="1">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="3:7" ht="15" customHeight="1">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="3:7" ht="15" customHeight="1">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="3:7" ht="15" customHeight="1">
+      <c r="C54" s="12">
+        <v>11</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="15" customHeight="1">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="3:7" ht="15" customHeight="1">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="3:7" ht="15" customHeight="1">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="3:7" ht="15" customHeight="1">
+      <c r="C59" s="12">
+        <v>12</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15" customHeight="1">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="3:7" ht="15" customHeight="1">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="3:7" ht="15" customHeight="1">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="3:7" ht="15" customHeight="1">
+      <c r="C64" s="12">
+        <v>13</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="15" customHeight="1">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="3:7" ht="15" customHeight="1">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="3:7" ht="15" customHeight="1">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="3:7" ht="15" customHeight="1">
+      <c r="C69" s="12">
+        <v>14</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="15" customHeight="1">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="3:7" ht="15" customHeight="1">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="3:7" ht="15" customHeight="1">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="3:7" ht="15" customHeight="1">
+      <c r="C74" s="12">
+        <v>15</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="15" customHeight="1">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="3:7" ht="15" customHeight="1">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="3:7" ht="15" customHeight="1">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="3:7" ht="15" customHeight="1">
+      <c r="C79" s="12">
+        <v>16</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" ht="15" customHeight="1">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="3:7" ht="15" customHeight="1">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="3:7" ht="15" customHeight="1">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="3:7" ht="15" customHeight="1">
+      <c r="C84" s="12">
+        <v>17</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="15" customHeight="1">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="3:7" ht="15" customHeight="1">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="3:7" ht="15" customHeight="1">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="3:7" ht="15" customHeight="1">
+      <c r="C89" s="12">
+        <v>18</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="15" customHeight="1">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="3:7" ht="15" customHeight="1">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="3:7" ht="15" customHeight="1">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="3:7" ht="15" customHeight="1">
+      <c r="C94" s="12">
+        <v>19</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" ht="15" customHeight="1">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="3:7" ht="15" customHeight="1">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="3:7" ht="15" customHeight="1">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="3:7" ht="15" customHeight="1">
+      <c r="C99" s="12">
+        <v>20</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" ht="15" customHeight="1">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="3:7" ht="15" customHeight="1">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="3:7" ht="15" customHeight="1">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="3:7" ht="15" customHeight="1">
+      <c r="C104" s="12">
+        <v>21</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" ht="15" customHeight="1">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="3:7" ht="15" customHeight="1">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="3:7" ht="15" customHeight="1">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108" s="9"/>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="3:7" ht="15" customHeight="1">
+      <c r="C109" s="12">
+        <v>22</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" ht="15" customHeight="1">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="3:7" ht="15" customHeight="1">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="3:7" ht="15" customHeight="1">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="9"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="3:7" ht="15" customHeight="1">
+      <c r="C114" s="12">
+        <v>23</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" ht="15" customHeight="1">
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="3:7" ht="15" customHeight="1">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="3:7" ht="15" customHeight="1">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F118" s="9"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="3:7" ht="15" customHeight="1">
+      <c r="C119" s="12">
+        <v>24</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" ht="15" customHeight="1">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="3:7" ht="15" customHeight="1">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="3:7" ht="15" customHeight="1">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="3:7" ht="15" customHeight="1">
+      <c r="C124" s="12">
+        <v>25</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" ht="15" customHeight="1">
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="3:7" ht="15" customHeight="1">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="3:7" ht="15" customHeight="1">
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="3:7" ht="15" customHeight="1">
+      <c r="C129" s="12">
+        <v>26</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" ht="15" customHeight="1">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="3:7" ht="15" customHeight="1">
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="3:7" ht="15" customHeight="1">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="3:7" ht="15" customHeight="1">
+      <c r="C134" s="12">
+        <v>27</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" ht="15" customHeight="1">
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="3:7" ht="15" customHeight="1">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="3:7" ht="15" customHeight="1">
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F138" s="9"/>
+      <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="3:7" ht="15" customHeight="1">
+      <c r="C139" s="12">
+        <v>28</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" ht="15" customHeight="1">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="3:7" ht="15" customHeight="1">
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="3:7" ht="15" customHeight="1">
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" s="9"/>
+      <c r="G143" s="11"/>
+    </row>
+    <row r="144" spans="3:7" ht="15" customHeight="1">
+      <c r="C144" s="12">
+        <v>29</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" ht="15" customHeight="1">
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="3:7" ht="15" customHeight="1">
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F146" s="8"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="3:7" ht="15" customHeight="1">
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F148" s="9"/>
+      <c r="G148" s="11"/>
+    </row>
+    <row r="149" spans="3:7" ht="15" customHeight="1">
+      <c r="C149" s="12">
+        <v>30</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" ht="15" customHeight="1">
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F150" s="8"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="3:7" ht="15" customHeight="1">
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="3:7" ht="15" customHeight="1">
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F152" s="8"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F153" s="9"/>
+      <c r="G153" s="11"/>
+    </row>
+    <row r="154" spans="3:7" ht="15" customHeight="1">
+      <c r="C154" s="12">
+        <v>31</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" ht="15" customHeight="1">
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="3:7" ht="15" customHeight="1">
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F156" s="8"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="3:7" ht="15" customHeight="1">
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F157" s="8"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F158" s="9"/>
+      <c r="G158" s="11"/>
+    </row>
+    <row r="159" spans="3:7" ht="15" customHeight="1">
+      <c r="C159" s="12">
+        <v>32</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" ht="15" customHeight="1">
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="3:7" ht="15" customHeight="1">
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="3:7" ht="15" customHeight="1">
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F162" s="8"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F163" s="9"/>
+      <c r="G163" s="11"/>
+    </row>
+    <row r="164" spans="3:7" ht="15" customHeight="1">
+      <c r="C164" s="12">
+        <v>33</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" ht="15" customHeight="1">
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F165" s="8"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="3:7" ht="15" customHeight="1">
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="3:7" ht="15" customHeight="1">
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F167" s="8"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F168" s="9"/>
+      <c r="G168" s="11"/>
+    </row>
+    <row r="169" spans="3:7" ht="15" customHeight="1">
+      <c r="C169" s="12">
+        <v>34</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" ht="15" customHeight="1">
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F170" s="8"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="3:7" ht="15" customHeight="1">
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F171" s="8"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="3:7" ht="15" customHeight="1">
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F172" s="8"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="11"/>
+    </row>
+    <row r="174" spans="3:7" ht="15" customHeight="1">
+      <c r="C174" s="12">
+        <v>35</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" ht="15" customHeight="1">
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F175" s="8"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="3:7" ht="15" customHeight="1">
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F176" s="8"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="3:7" ht="15" customHeight="1">
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F177" s="8"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F178" s="9"/>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="3:7" ht="15" customHeight="1">
+      <c r="C179" s="12">
+        <v>36</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" ht="15" customHeight="1">
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F180" s="8"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="3:7" ht="15" customHeight="1">
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F181" s="8"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="3:7" ht="15" customHeight="1">
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F182" s="8"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F183" s="9"/>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="3:7" ht="15" customHeight="1">
+      <c r="C184" s="12">
+        <v>37</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" ht="15" customHeight="1">
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F185" s="8"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="3:7" ht="15" customHeight="1">
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F186" s="8"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="3:7" ht="15" customHeight="1">
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F187" s="8"/>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F188" s="9"/>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="3:7" ht="15" customHeight="1">
+      <c r="C189" s="12">
+        <v>38</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" ht="15" customHeight="1">
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F190" s="8"/>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="3:7" ht="15" customHeight="1">
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F191" s="8"/>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="3:7" ht="15" customHeight="1">
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F192" s="8"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F193" s="9"/>
+      <c r="G193" s="11"/>
+    </row>
+    <row r="194" spans="3:7" ht="15" customHeight="1">
+      <c r="C194" s="12">
+        <v>39</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" ht="15" customHeight="1">
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="3:7" ht="15" customHeight="1">
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F196" s="8"/>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="3:7" ht="15" customHeight="1">
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F197" s="8"/>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F198" s="9"/>
+      <c r="G198" s="11"/>
+    </row>
+    <row r="199" spans="3:7" ht="15" customHeight="1">
+      <c r="C199" s="12">
+        <v>40</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" ht="15" customHeight="1">
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F200" s="8"/>
+      <c r="G200" s="16"/>
+    </row>
+    <row r="201" spans="3:7" ht="15" customHeight="1">
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F201" s="8"/>
+      <c r="G201" s="16"/>
+    </row>
+    <row r="202" spans="3:7" ht="15" customHeight="1">
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F202" s="8"/>
+      <c r="G202" s="16"/>
+    </row>
+    <row r="203" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F203" s="9"/>
+      <c r="G203" s="17"/>
+    </row>
+    <row r="204" spans="3:7" ht="15" customHeight="1">
+      <c r="C204" s="12">
+        <v>41</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G204" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" ht="15" customHeight="1">
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F205" s="8"/>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="3:7" ht="15" customHeight="1">
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F206" s="8"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="3:7" ht="15" customHeight="1">
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F207" s="8"/>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F208" s="9"/>
+      <c r="G208" s="11"/>
+    </row>
+    <row r="209" spans="3:7" ht="15" customHeight="1">
+      <c r="C209" s="12">
+        <v>42</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" ht="15" customHeight="1">
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F210" s="8"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="3:7" ht="15" customHeight="1">
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F211" s="8"/>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="3:7" ht="15" customHeight="1">
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F212" s="8"/>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F213" s="9"/>
+      <c r="G213" s="11"/>
+    </row>
+    <row r="214" spans="3:7" ht="15" customHeight="1">
+      <c r="C214" s="12">
+        <v>43</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G214" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7" ht="15" customHeight="1">
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F215" s="8"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="3:7" ht="15" customHeight="1">
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F216" s="8"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="3:7" ht="15" customHeight="1">
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F217" s="8"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F218" s="9"/>
+      <c r="G218" s="11"/>
+    </row>
+    <row r="219" spans="3:7" ht="15" customHeight="1">
+      <c r="C219" s="12">
+        <v>44</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G219" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7" ht="15" customHeight="1">
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F220" s="8"/>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="3:7" ht="15" customHeight="1">
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F221" s="8"/>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="3:7" ht="15" customHeight="1">
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F222" s="8"/>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F223" s="9"/>
+      <c r="G223" s="11"/>
+    </row>
+    <row r="224" spans="3:7" ht="15" customHeight="1">
+      <c r="C224" s="12">
+        <v>45</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G224" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" ht="15" customHeight="1">
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F225" s="8"/>
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="3:7" ht="15" customHeight="1">
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F226" s="8"/>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="3:7" ht="15" customHeight="1">
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F227" s="8"/>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F228" s="9"/>
+      <c r="G228" s="11"/>
+    </row>
+    <row r="229" spans="3:7" ht="15" customHeight="1">
+      <c r="C229" s="12">
+        <v>46</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" ht="15" customHeight="1">
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F230" s="8"/>
+      <c r="G230" s="10"/>
+    </row>
+    <row r="231" spans="3:7" ht="15" customHeight="1">
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F231" s="8"/>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="3:7" ht="15" customHeight="1">
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F232" s="8"/>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F233" s="9"/>
+      <c r="G233" s="11"/>
+    </row>
+    <row r="234" spans="3:7" ht="15" customHeight="1">
+      <c r="C234" s="12">
+        <v>47</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7" ht="15" customHeight="1">
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F235" s="8"/>
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="3:7" ht="15" customHeight="1">
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F236" s="8"/>
+      <c r="G236" s="10"/>
+    </row>
+    <row r="237" spans="3:7" ht="15" customHeight="1">
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F237" s="8"/>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F238" s="9"/>
+      <c r="G238" s="11"/>
+    </row>
+    <row r="239" spans="3:7" ht="15" customHeight="1">
+      <c r="C239" s="12">
+        <v>48</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G239" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7" ht="15" customHeight="1">
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F240" s="8"/>
+      <c r="G240" s="10"/>
+    </row>
+    <row r="241" spans="3:7" ht="15" customHeight="1">
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F241" s="8"/>
+      <c r="G241" s="10"/>
+    </row>
+    <row r="242" spans="3:7" ht="15" customHeight="1">
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F242" s="8"/>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="243" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F243" s="9"/>
+      <c r="G243" s="11"/>
+    </row>
+    <row r="244" spans="3:7" ht="15" customHeight="1">
+      <c r="C244" s="12">
+        <v>49</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G244" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="3:7" ht="15" customHeight="1">
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F245" s="8"/>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="3:7" ht="15" customHeight="1">
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F246" s="8"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="3:7" ht="15" customHeight="1">
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F247" s="8"/>
+      <c r="G247" s="10"/>
+    </row>
+    <row r="248" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F248" s="9"/>
+      <c r="G248" s="11"/>
+    </row>
+    <row r="249" spans="3:7" ht="15" customHeight="1">
+      <c r="C249" s="12">
+        <v>50</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G249" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="250" spans="3:7" ht="15" customHeight="1">
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F250" s="8"/>
+      <c r="G250" s="10"/>
+    </row>
+    <row r="251" spans="3:7" ht="15" customHeight="1">
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F251" s="8"/>
+      <c r="G251" s="10"/>
+    </row>
+    <row r="252" spans="3:7" ht="15" customHeight="1">
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F252" s="8"/>
+      <c r="G252" s="10"/>
+    </row>
+    <row r="253" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F253" s="9"/>
+      <c r="G253" s="11"/>
+    </row>
+    <row r="254" spans="3:7" ht="15" customHeight="1">
+      <c r="C254" s="12">
+        <v>51</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G254" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="255" spans="3:7" ht="15" customHeight="1">
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F255" s="8"/>
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="3:7" ht="15" customHeight="1">
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F256" s="8"/>
+      <c r="G256" s="10"/>
+    </row>
+    <row r="257" spans="3:7" ht="15" customHeight="1">
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F257" s="8"/>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F258" s="9"/>
+      <c r="G258" s="11"/>
+    </row>
+    <row r="259" spans="3:7" ht="15" customHeight="1">
+      <c r="C259" s="12">
+        <v>52</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F259" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="G259" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="260" spans="3:7" ht="15" customHeight="1">
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F260" s="8"/>
+      <c r="G260" s="10"/>
+    </row>
+    <row r="261" spans="3:7" ht="15" customHeight="1">
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F261" s="8"/>
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="3:7" ht="15" customHeight="1">
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F262" s="8"/>
+      <c r="G262" s="10"/>
+    </row>
+    <row r="263" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F263" s="9"/>
+      <c r="G263" s="11"/>
+    </row>
+    <row r="264" spans="3:7" ht="15" customHeight="1">
+      <c r="C264" s="12">
+        <v>53</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G264" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="3:7" ht="15" customHeight="1">
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F265" s="8"/>
+      <c r="G265" s="10"/>
+    </row>
+    <row r="266" spans="3:7" ht="15" customHeight="1">
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F266" s="8"/>
+      <c r="G266" s="10"/>
+    </row>
+    <row r="267" spans="3:7" ht="15" customHeight="1">
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F267" s="8"/>
+      <c r="G267" s="10"/>
+    </row>
+    <row r="268" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F268" s="9"/>
+      <c r="G268" s="11"/>
+    </row>
+    <row r="269" spans="3:7" ht="15" customHeight="1">
+      <c r="C269" s="12">
+        <v>54</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G269" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="3:7" ht="15" customHeight="1">
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F270" s="8"/>
+      <c r="G270" s="10"/>
+    </row>
+    <row r="271" spans="3:7" ht="15" customHeight="1">
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F271" s="8"/>
+      <c r="G271" s="10"/>
+    </row>
+    <row r="272" spans="3:7" ht="15" customHeight="1">
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F272" s="8"/>
+      <c r="G272" s="10"/>
+    </row>
+    <row r="273" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F273" s="9"/>
+      <c r="G273" s="11"/>
+    </row>
+    <row r="274" spans="3:7" ht="15" customHeight="1">
+      <c r="C274" s="12">
+        <v>55</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F274" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G274" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="275" spans="3:7" ht="15" customHeight="1">
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F275" s="8"/>
+      <c r="G275" s="10"/>
+    </row>
+    <row r="276" spans="3:7" ht="15" customHeight="1">
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F276" s="8"/>
+      <c r="G276" s="10"/>
+    </row>
+    <row r="277" spans="3:7" ht="15" customHeight="1">
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F277" s="8"/>
+      <c r="G277" s="10"/>
+    </row>
+    <row r="278" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F278" s="9"/>
+      <c r="G278" s="11"/>
+    </row>
+    <row r="279" spans="3:7" ht="15" customHeight="1">
+      <c r="C279" s="12">
+        <v>56</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F279" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G279" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="280" spans="3:7" ht="15" customHeight="1">
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F280" s="8"/>
+      <c r="G280" s="10"/>
+    </row>
+    <row r="281" spans="3:7" ht="15" customHeight="1">
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F281" s="8"/>
+      <c r="G281" s="10"/>
+    </row>
+    <row r="282" spans="3:7" ht="15" customHeight="1">
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F282" s="8"/>
+      <c r="G282" s="10"/>
+    </row>
+    <row r="283" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F283" s="9"/>
+      <c r="G283" s="11"/>
+    </row>
+    <row r="284" spans="3:7" ht="15" customHeight="1">
+      <c r="C284" s="12">
+        <v>57</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F284" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G284" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="285" spans="3:7" ht="15" customHeight="1">
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F285" s="8"/>
+      <c r="G285" s="10"/>
+    </row>
+    <row r="286" spans="3:7" ht="15" customHeight="1">
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F286" s="8"/>
+      <c r="G286" s="10"/>
+    </row>
+    <row r="287" spans="3:7" ht="15" customHeight="1">
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F287" s="8"/>
+      <c r="G287" s="10"/>
+    </row>
+    <row r="288" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F288" s="9"/>
+      <c r="G288" s="11"/>
+    </row>
+    <row r="289" spans="3:7" ht="15" customHeight="1">
+      <c r="C289" s="12">
+        <v>58</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G289" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="290" spans="3:7" ht="15" customHeight="1">
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F290" s="8"/>
+      <c r="G290" s="16"/>
+    </row>
+    <row r="291" spans="3:7" ht="15" customHeight="1">
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F291" s="8"/>
+      <c r="G291" s="16"/>
+    </row>
+    <row r="292" spans="3:7" ht="15" customHeight="1">
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F292" s="8"/>
+      <c r="G292" s="16"/>
+    </row>
+    <row r="293" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F293" s="9"/>
+      <c r="G293" s="17"/>
+    </row>
+    <row r="294" spans="3:7" ht="15" customHeight="1">
+      <c r="C294" s="12">
+        <v>59</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G294" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="3:7" ht="15" customHeight="1">
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F295" s="8"/>
+      <c r="G295" s="10"/>
+    </row>
+    <row r="296" spans="3:7" ht="15" customHeight="1">
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F296" s="8"/>
+      <c r="G296" s="10"/>
+    </row>
+    <row r="297" spans="3:7" ht="15" customHeight="1">
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F297" s="8"/>
+      <c r="G297" s="10"/>
+    </row>
+    <row r="298" spans="3:7" ht="15" customHeight="1" thickBot="1">
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F298" s="9"/>
+      <c r="G298" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="236">
+    <mergeCell ref="C294:C298"/>
+    <mergeCell ref="D294:D298"/>
+    <mergeCell ref="F294:F298"/>
+    <mergeCell ref="G294:G298"/>
+    <mergeCell ref="C284:C288"/>
+    <mergeCell ref="D284:D288"/>
+    <mergeCell ref="F284:F288"/>
+    <mergeCell ref="G284:G288"/>
+    <mergeCell ref="C289:C293"/>
+    <mergeCell ref="D289:D293"/>
+    <mergeCell ref="F289:F293"/>
+    <mergeCell ref="G289:G293"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="D274:D278"/>
+    <mergeCell ref="F274:F278"/>
+    <mergeCell ref="G274:G278"/>
+    <mergeCell ref="C279:C283"/>
+    <mergeCell ref="D279:D283"/>
+    <mergeCell ref="F279:F283"/>
+    <mergeCell ref="G279:G283"/>
+    <mergeCell ref="C264:C268"/>
+    <mergeCell ref="D264:D268"/>
+    <mergeCell ref="F264:F268"/>
+    <mergeCell ref="G264:G268"/>
+    <mergeCell ref="C269:C273"/>
+    <mergeCell ref="D269:D273"/>
+    <mergeCell ref="F269:F273"/>
+    <mergeCell ref="G269:G273"/>
+    <mergeCell ref="C254:C258"/>
+    <mergeCell ref="D254:D258"/>
+    <mergeCell ref="F254:F258"/>
+    <mergeCell ref="G254:G258"/>
+    <mergeCell ref="C259:C263"/>
+    <mergeCell ref="D259:D263"/>
+    <mergeCell ref="F259:F263"/>
+    <mergeCell ref="G259:G263"/>
+    <mergeCell ref="C244:C248"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="F244:F248"/>
+    <mergeCell ref="G244:G248"/>
+    <mergeCell ref="C249:C253"/>
+    <mergeCell ref="D249:D253"/>
+    <mergeCell ref="F249:F253"/>
+    <mergeCell ref="G249:G253"/>
+    <mergeCell ref="C234:C238"/>
+    <mergeCell ref="D234:D238"/>
+    <mergeCell ref="F234:F238"/>
+    <mergeCell ref="G234:G238"/>
+    <mergeCell ref="C239:C243"/>
+    <mergeCell ref="D239:D243"/>
+    <mergeCell ref="F239:F243"/>
+    <mergeCell ref="G239:G243"/>
+    <mergeCell ref="C224:C228"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="F224:F228"/>
+    <mergeCell ref="G224:G228"/>
+    <mergeCell ref="C229:C233"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="F229:F233"/>
+    <mergeCell ref="G229:G233"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="D214:D218"/>
+    <mergeCell ref="F214:F218"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="C219:C223"/>
+    <mergeCell ref="D219:D223"/>
+    <mergeCell ref="F219:F223"/>
+    <mergeCell ref="G219:G223"/>
+    <mergeCell ref="C204:C208"/>
+    <mergeCell ref="D204:D208"/>
+    <mergeCell ref="F204:F208"/>
+    <mergeCell ref="G204:G208"/>
+    <mergeCell ref="C209:C213"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="F209:F213"/>
+    <mergeCell ref="G209:G213"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="D194:D198"/>
+    <mergeCell ref="F194:F198"/>
+    <mergeCell ref="G194:G198"/>
+    <mergeCell ref="C199:C203"/>
+    <mergeCell ref="D199:D203"/>
+    <mergeCell ref="F199:F203"/>
+    <mergeCell ref="G199:G203"/>
+    <mergeCell ref="C184:C188"/>
+    <mergeCell ref="D184:D188"/>
+    <mergeCell ref="F184:F188"/>
+    <mergeCell ref="G184:G188"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="D189:D193"/>
+    <mergeCell ref="F189:F193"/>
+    <mergeCell ref="G189:G193"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="D174:D178"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="G174:G178"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="D179:D183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="F164:F168"/>
+    <mergeCell ref="G164:G168"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="D169:D173"/>
+    <mergeCell ref="F169:F173"/>
+    <mergeCell ref="G169:G173"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="D154:D158"/>
+    <mergeCell ref="F154:F158"/>
+    <mergeCell ref="G154:G158"/>
+    <mergeCell ref="C159:C163"/>
+    <mergeCell ref="D159:D163"/>
+    <mergeCell ref="F159:F163"/>
+    <mergeCell ref="G159:G163"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="F144:F148"/>
+    <mergeCell ref="G144:G148"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="F149:F153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
   <dimension ref="A1"/>
   <sheetViews>
